--- a/CRAFT_mCRAFT/Run Manager.xlsx
+++ b/CRAFT_mCRAFT/Run Manager.xlsx
@@ -679,7 +679,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>runLoopTest</t>
+  </si>
+  <si>
+    <t>ScenarioExecution1</t>
   </si>
 </sst>
 </file>
@@ -1371,15 +1374,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -1916,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>41</v>
@@ -1948,7 +1952,40 @@
       <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J14" s="4"/>
@@ -2010,36 +2047,33 @@
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J34" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J34:J65529">
+      <formula1>ToolOptions</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J33">
       <formula1>INDIRECT(I2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65530">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65529">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value!" error="The test instance should be a non-zero whole number" sqref="C1:C1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F65530">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F65529">
       <formula1>IterationOptions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N65530">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N65529">
       <formula1>BrowserOptions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I65530">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I65529">
       <formula1>ExecutionModeOptions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J35:J65530">
-      <formula1>ToolOptions</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P65530">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P65529">
       <formula1>PlatformOptions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K65531">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K65530">
       <formula1>ExecutionPlatformOptions</formula1>
     </dataValidation>
   </dataValidations>
@@ -2054,7 +2088,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>

--- a/CRAFT_mCRAFT/Run Manager.xlsx
+++ b/CRAFT_mCRAFT/Run Manager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="3585"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13830" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="ToolOptions">Sheet1!$F$2:$F$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -924,7 +925,7 @@
     <t>runLoopTest</t>
   </si>
   <si>
-    <t>ScenarioExecution1</t>
+    <t>gTest</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2086,7 +2087,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>

--- a/CRAFT_mCRAFT/Run Manager.xlsx
+++ b/CRAFT_mCRAFT/Run Manager.xlsx
@@ -29,7 +29,6 @@
     <definedName name="ToolOptions">Sheet1!$F$2:$F$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -925,7 +924,7 @@
     <t>runLoopTest</t>
   </si>
   <si>
-    <t>gTest</t>
+    <t>runTestScenario</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1374,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -2087,7 +2086,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>

--- a/CRAFT_mCRAFT/Run Manager.xlsx
+++ b/CRAFT_mCRAFT/Run Manager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13830" windowHeight="3255"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18030" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="ToolOptions">Sheet1!$F$2:$F$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -679,7 +680,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -925,6 +926,9 @@
   </si>
   <si>
     <t>runTestScenario</t>
+  </si>
+  <si>
+    <t>New External Candidate Application  for US Requistion through Drop Box Resume upload</t>
   </si>
 </sst>
 </file>
@@ -1374,11 +1378,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1390,7 @@
     <col min="1" max="1" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -1410,7 +1414,7 @@
     <col min="26" max="16384" width="13.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1470,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -1510,7 +1514,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
@@ -1556,7 +1560,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
@@ -1601,7 +1605,7 @@
       <c r="T4"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1644,7 +1648,7 @@
       <c r="T5"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1686,7 +1690,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1722,7 +1726,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
@@ -1753,7 +1757,9 @@
       <c r="J8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="4" t="s">
         <v>78</v>
@@ -1769,7 +1775,7 @@
       <c r="T8"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
@@ -1798,9 +1804,7 @@
         <v>48</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="8"/>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
@@ -1816,7 +1820,7 @@
       <c r="T9"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
@@ -1861,7 +1865,7 @@
       <c r="T10"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
@@ -1906,7 +1910,7 @@
       <c r="T11"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>71</v>
       </c>
@@ -1951,7 +1955,7 @@
       <c r="T12"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -1962,10 +1966,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>41</v>
@@ -1977,23 +1981,63 @@
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="4"/>
       <c r="P13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
@@ -2086,7 +2130,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
